--- a/INTLINE/data/158/COJ/Indexes of Business Conditions.xlsx
+++ b/INTLINE/data/158/COJ/Indexes of Business Conditions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０１／速報\★R4(2022)★\令和4年4月分\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\CI\０１／CI\０２／速報からの改訂\★R4(2022)★\令和4年4月改訂\g研究所ホームページ掲載宛送付ファイル\jp\stat\di\di\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5839,7 +5839,7 @@
         <v>81.7</v>
       </c>
       <c r="G85" s="4">
-        <v>73.099999999999994</v>
+        <v>73</v>
       </c>
       <c r="H85" s="4">
         <v>77.400000000000006</v>
@@ -6535,7 +6535,7 @@
         <v>10</v>
       </c>
       <c r="D100" s="4">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="E100" s="4">
         <v>85</v>
@@ -6676,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="4">
-        <v>89</v>
+        <v>89.1</v>
       </c>
       <c r="E103" s="4">
         <v>87.2</v>
@@ -6723,7 +6723,7 @@
         <v>2</v>
       </c>
       <c r="D104" s="4">
-        <v>89.9</v>
+        <v>90</v>
       </c>
       <c r="E104" s="4">
         <v>89.3</v>
@@ -7052,7 +7052,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="4">
-        <v>89</v>
+        <v>89.1</v>
       </c>
       <c r="E111" s="4">
         <v>92</v>
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="4">
-        <v>90.9</v>
+        <v>91</v>
       </c>
       <c r="E115" s="4">
         <v>94.6</v>
@@ -7907,7 +7907,7 @@
         <v>102</v>
       </c>
       <c r="G129" s="4">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="H129" s="4">
         <v>98.1</v>
@@ -8001,7 +8001,7 @@
         <v>102</v>
       </c>
       <c r="G131" s="4">
-        <v>95</v>
+        <v>95.1</v>
       </c>
       <c r="H131" s="4">
         <v>100.8</v>
@@ -8603,7 +8603,7 @@
         <v>6</v>
       </c>
       <c r="D144" s="4">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="E144" s="4">
         <v>98.3</v>
@@ -9167,7 +9167,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="4">
-        <v>76.099999999999994</v>
+        <v>76</v>
       </c>
       <c r="E156" s="4">
         <v>89</v>
@@ -9261,7 +9261,7 @@
         <v>8</v>
       </c>
       <c r="D158" s="4">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="E158" s="4">
         <v>86.3</v>
@@ -9449,7 +9449,7 @@
         <v>12</v>
       </c>
       <c r="D162" s="4">
-        <v>74.7</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="E162" s="4">
         <v>83.1</v>
@@ -9552,7 +9552,7 @@
         <v>94.7</v>
       </c>
       <c r="G164" s="4">
-        <v>75.900000000000006</v>
+        <v>75.8</v>
       </c>
       <c r="H164" s="4">
         <v>85.1</v>
@@ -9590,7 +9590,7 @@
         <v>3</v>
       </c>
       <c r="D165" s="4">
-        <v>75.5</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="E165" s="4">
         <v>83.5</v>
@@ -9881,7 +9881,7 @@
         <v>89.8</v>
       </c>
       <c r="G171" s="4">
-        <v>78.2</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="H171" s="4">
         <v>82</v>
@@ -10022,7 +10022,7 @@
         <v>87.9</v>
       </c>
       <c r="G174" s="4">
-        <v>76.7</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="H174" s="4">
         <v>80.099999999999994</v>
@@ -10069,7 +10069,7 @@
         <v>88.3</v>
       </c>
       <c r="G175" s="4">
-        <v>77.599999999999994</v>
+        <v>77.5</v>
       </c>
       <c r="H175" s="4">
         <v>80.599999999999994</v>
@@ -10107,7 +10107,7 @@
         <v>2</v>
       </c>
       <c r="D176" s="4">
-        <v>78.400000000000006</v>
+        <v>78.3</v>
       </c>
       <c r="E176" s="4">
         <v>79.400000000000006</v>
@@ -10154,7 +10154,7 @@
         <v>3</v>
       </c>
       <c r="D177" s="4">
-        <v>80.599999999999994</v>
+        <v>80.5</v>
       </c>
       <c r="E177" s="4">
         <v>80.5</v>
@@ -10680,7 +10680,7 @@
         <v>86.9</v>
       </c>
       <c r="G188" s="4">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="H188" s="4">
         <v>85.9</v>
@@ -10868,7 +10868,7 @@
         <v>87</v>
       </c>
       <c r="G192" s="4">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="H192" s="4">
         <v>86.2</v>
@@ -11244,7 +11244,7 @@
         <v>89.8</v>
       </c>
       <c r="G200" s="4">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="H200" s="4">
         <v>88.3</v>
@@ -12278,7 +12278,7 @@
         <v>97.1</v>
       </c>
       <c r="G222" s="4">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="H222" s="4">
         <v>91.7</v>
@@ -12419,7 +12419,7 @@
         <v>94</v>
       </c>
       <c r="G225" s="4">
-        <v>85.1</v>
+        <v>85</v>
       </c>
       <c r="H225" s="4">
         <v>87.1</v>
@@ -12692,7 +12692,7 @@
         <v>9</v>
       </c>
       <c r="D231" s="4">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="E231" s="4">
         <v>85</v>
@@ -13068,7 +13068,7 @@
         <v>5</v>
       </c>
       <c r="D239" s="4">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="E239" s="4">
         <v>85.6</v>
@@ -13124,7 +13124,7 @@
         <v>87.4</v>
       </c>
       <c r="G240" s="4">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="H240" s="4">
         <v>87.4</v>
@@ -15042,7 +15042,7 @@
         <v>11</v>
       </c>
       <c r="D281" s="4">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="E281" s="4">
         <v>90.6</v>
@@ -15897,7 +15897,7 @@
         <v>98</v>
       </c>
       <c r="G299" s="4">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="H299" s="4">
         <v>100.6</v>
@@ -15935,7 +15935,7 @@
         <v>6</v>
       </c>
       <c r="D300" s="4">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="E300" s="4">
         <v>99.8</v>
@@ -16076,7 +16076,7 @@
         <v>9</v>
       </c>
       <c r="D303" s="4">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="E303" s="4">
         <v>100.1</v>
@@ -16734,7 +16734,7 @@
         <v>11</v>
       </c>
       <c r="D317" s="4">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="E317" s="4">
         <v>102.9</v>
@@ -16931,7 +16931,7 @@
         <v>102.8</v>
       </c>
       <c r="G321" s="4">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="H321" s="4">
         <v>106.5</v>
@@ -17354,7 +17354,7 @@
         <v>107</v>
       </c>
       <c r="G330" s="4">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="H330" s="4">
         <v>108.1</v>
@@ -18482,7 +18482,7 @@
         <v>99</v>
       </c>
       <c r="G354" s="4">
-        <v>77.400000000000006</v>
+        <v>77.3</v>
       </c>
       <c r="H354" s="4">
         <v>81.7</v>
@@ -18529,7 +18529,7 @@
         <v>97.2</v>
       </c>
       <c r="G355" s="4">
-        <v>72</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="H355" s="4">
         <v>74.5</v>
@@ -18576,7 +18576,7 @@
         <v>94.2</v>
       </c>
       <c r="G356" s="4">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="H356" s="4">
         <v>68.900000000000006</v>
@@ -18614,7 +18614,7 @@
         <v>3</v>
       </c>
       <c r="D357" s="4">
-        <v>74.8</v>
+        <v>74.7</v>
       </c>
       <c r="E357" s="4">
         <v>71.5</v>
@@ -18661,7 +18661,7 @@
         <v>4</v>
       </c>
       <c r="D358" s="4">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="E358" s="4">
         <v>72.8</v>
@@ -18708,7 +18708,7 @@
         <v>5</v>
       </c>
       <c r="D359" s="4">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="E359" s="4">
         <v>74.2</v>
@@ -19140,7 +19140,7 @@
         <v>86.9</v>
       </c>
       <c r="G368" s="4">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="H368" s="4">
         <v>89.3</v>
@@ -19648,7 +19648,7 @@
         <v>1</v>
       </c>
       <c r="D379" s="4">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="E379" s="4">
         <v>93.9</v>
@@ -19986,7 +19986,7 @@
         <v>91.6</v>
       </c>
       <c r="G386" s="4">
-        <v>95</v>
+        <v>94.9</v>
       </c>
       <c r="H386" s="4">
         <v>93</v>
@@ -20456,7 +20456,7 @@
         <v>93.7</v>
       </c>
       <c r="G396" s="4">
-        <v>94</v>
+        <v>93.9</v>
       </c>
       <c r="H396" s="4">
         <v>94</v>
@@ -20541,7 +20541,7 @@
         <v>8</v>
       </c>
       <c r="D398" s="4">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="E398" s="4">
         <v>93.5</v>
@@ -20917,7 +20917,7 @@
         <v>4</v>
       </c>
       <c r="D406" s="4">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="E406" s="4">
         <v>96</v>
@@ -21105,7 +21105,7 @@
         <v>8</v>
       </c>
       <c r="D410" s="4">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="E410" s="4">
         <v>98.9</v>
@@ -21246,7 +21246,7 @@
         <v>11</v>
       </c>
       <c r="D413" s="4">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="E413" s="4">
         <v>101.3</v>
@@ -22477,7 +22477,7 @@
         <v>99.6</v>
       </c>
       <c r="G439" s="4">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="H439" s="4">
         <v>99.7</v>
@@ -23314,7 +23314,7 @@
         <v>7</v>
       </c>
       <c r="D457" s="4">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="E457" s="4">
         <v>103.1</v>
@@ -23549,7 +23549,7 @@
         <v>12</v>
       </c>
       <c r="D462" s="4">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="E462" s="4">
         <v>106.4</v>
@@ -23558,7 +23558,7 @@
         <v>104.1</v>
       </c>
       <c r="G462" s="4">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="H462" s="4">
         <v>106.6</v>
@@ -23784,7 +23784,7 @@
         <v>5</v>
       </c>
       <c r="D467" s="4">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="E467" s="4">
         <v>105.4</v>
@@ -24874,7 +24874,7 @@
         <v>97.2</v>
       </c>
       <c r="G490" s="4">
-        <v>76</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="H490" s="4">
         <v>80.599999999999994</v>
@@ -25288,7 +25288,7 @@
         <v>1</v>
       </c>
       <c r="D499" s="4">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="E499" s="4">
         <v>91.7</v>
@@ -25335,7 +25335,7 @@
         <v>2</v>
       </c>
       <c r="D500" s="4">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="E500" s="4">
         <v>91.2</v>
@@ -25344,7 +25344,7 @@
         <v>91.5</v>
       </c>
       <c r="G500" s="4">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="H500" s="4">
         <v>89.8</v>
@@ -25429,7 +25429,7 @@
         <v>4</v>
       </c>
       <c r="D502" s="4">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="E502" s="4">
         <v>95.6</v>
@@ -25476,7 +25476,7 @@
         <v>5</v>
       </c>
       <c r="D503" s="4">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="E503" s="4">
         <v>93.8</v>
@@ -25952,7 +25952,7 @@
         <v>96.8</v>
       </c>
       <c r="F513" s="4">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="G513" s="4">
         <v>97.7</v>
@@ -25961,7 +25961,7 @@
         <v>93.8</v>
       </c>
       <c r="I513" s="4">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="J513" s="4">
         <v>27.3</v>
@@ -25999,34 +25999,34 @@
         <v>96.8</v>
       </c>
       <c r="F514" s="4">
-        <v>96.7</v>
+        <v>96.4</v>
       </c>
       <c r="G514" s="4">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="H514" s="4">
         <v>93.8</v>
       </c>
       <c r="I514" s="4">
-        <v>98.3</v>
+        <v>97.4</v>
       </c>
       <c r="J514" s="4">
-        <v>61.1</v>
+        <v>60</v>
       </c>
       <c r="K514" s="4">
-        <v>75</v>
+        <v>77.8</v>
       </c>
       <c r="L514" s="4">
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="M514" s="4">
-        <v>1305.4000000000001</v>
+        <v>1304.3</v>
       </c>
       <c r="N514" s="4">
-        <v>3235</v>
+        <v>3237.8</v>
       </c>
       <c r="O514" s="4">
-        <v>2759.1</v>
+        <v>2746.6</v>
       </c>
     </row>
     <row r="523" spans="1:15" x14ac:dyDescent="0.15">
